--- a/Raw/Reviews/strumentimusicali_reviews.xlsx
+++ b/Raw/Reviews/strumentimusicali_reviews.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EKO VJB 3/4</t>
+          <t>D'ADDARIO EXL170SL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>€170.00</t>
+          <t>€24.00</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -474,16 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EKO VJB-200 Black</t>
+          <t>EKO VJB 3/4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>€169.00</t>
+          <t>€170.00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -492,16 +492,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EKO VJB-200 Cream</t>
+          <t>EKO VJB-200 Black</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>€179.00</t>
+          <t>€169.00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EKO VJB-200 Sunburst</t>
+          <t>EKO VJB-200 Cream</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EKO VJB-200V Vintage White</t>
+          <t>EKO VJB-200 Sunburst</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -546,16 +546,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EKO VJB-200V Vintage Sunburst</t>
+          <t>EKO VJB-200V Vintage White</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>€185.00</t>
+          <t>€179.00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -564,16 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CORT GB24JJ 2-Tone Sunburst</t>
+          <t>EKO VJB-200V Vintage Sunburst</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>€289.00</t>
+          <t>€185.00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -582,16 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FENDER Squier Affinity Jazz Bass MN Black</t>
+          <t>CORT GB24JJ 2-Tone Sunburst</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>€275.00</t>
+          <t>€289.00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -600,16 +600,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CORT GB24JJ Trans Black B-Stock</t>
+          <t>FENDER Squier Affinity Jazz Bass MN Black</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>€289.00</t>
+          <t>€275.00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARIA STB JB/B Electric Bass White</t>
+          <t>CORT GB24JJ Trans Black B-Stock</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>€275.00</t>
+          <t>€289.00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -636,7 +636,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ARIA STB JB/TT Electric Bass 3-Tone Sunburst</t>
+          <t>ARIA STB JB/B Electric Bass White</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -654,7 +654,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FENDER Squier Affinity Jazz Bass LRL Burgundy Mist</t>
+          <t>ARIA STB JB/TT Electric Bass 3-Tone Sunburst</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FENDER Squier Affinity Jazz Bass LRL Charcoal Frost Metallic</t>
+          <t>FENDER Squier Affinity Jazz Bass LRL Burgundy Mist</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FENDER Squier Affinity Jazz Bass MN 3-Color Sunburst</t>
+          <t>FENDER Squier Affinity Jazz Bass LRL Charcoal Frost Metallic</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CORT GB24JJ Trans Black</t>
+          <t>FENDER Squier Affinity Jazz Bass MN 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>€289.00</t>
+          <t>€275.00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3P 4 Sonic Blue</t>
+          <t>CORT GB24JJ Trans Black</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>€369.00</t>
+          <t>€289.00</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -744,16 +744,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Antique White (2nd Gen)</t>
+          <t>MARCUS MILLER V3P 4 Sonic Blue</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>€459.00</t>
+          <t>€369.00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -762,12 +762,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3P 4 Black Satin</t>
+          <t>MARCUS MILLER V3 4 Antique White (2nd Gen)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>€369.00</t>
+          <t>€459.00</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3P 4 Orange</t>
+          <t>MARCUS MILLER V3P 4 Black Satin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21">
@@ -798,7 +798,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3P 4 Red Satin</t>
+          <t>MARCUS MILLER V3P 4 Orange</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3P 4 Tobacco Sunburst</t>
+          <t>MARCUS MILLER V3P 4 Red Satin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -834,16 +834,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Red (2nd Gen)</t>
+          <t>MARCUS MILLER V3P 4 Tobacco Sunburst</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>€459.00</t>
+          <t>€369.00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -852,7 +852,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Orange (2nd Gen)</t>
+          <t>MARCUS MILLER V3 4 Red (2nd Gen)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25">
@@ -870,7 +870,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Sonic Blue (2nd Gen)</t>
+          <t>MARCUS MILLER V3 4 Orange (2nd Gen)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Tobacco Sunburst (2nd Gen)</t>
+          <t>MARCUS MILLER V3 4 Sonic Blue (2nd Gen)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +906,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Black (2nd Gen)</t>
+          <t>MARCUS MILLER V3 4 Tobacco Sunburst (2nd Gen)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28">
@@ -924,16 +924,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FENDER Squier Classic Vibe '70s Jazz Bass Natural</t>
+          <t>MARCUS MILLER V3 4 Black (2nd Gen)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>€435.00</t>
+          <t>€459.00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -942,7 +942,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FENDER Squier Classic Vibe '60 Jazz Bass 3-Color Sunburst</t>
+          <t>FENDER Squier Classic Vibe '70s Jazz Bass Natural</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30">
@@ -960,7 +960,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FENDER Squier Classic Vibe '60 Jazz Bass Daphne Blue</t>
+          <t>FENDER Squier Classic Vibe '60 Jazz Bass 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FENDER Squier Classic Vibe '70s Jazz Bass 3-Color Sunburst</t>
+          <t>FENDER Squier Classic Vibe '60 Jazz Bass Daphne Blue</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FENDER Squier Classic Vibe '70s Jazz Bass Black</t>
+          <t>FENDER Squier Classic Vibe '70s Jazz Bass 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1014,16 +1014,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74 Reiussed Bass Gloss Black</t>
+          <t>FENDER Squier Classic Vibe '70s Jazz Bass Black</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>€445.00</t>
+          <t>€435.00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74 Reiussed Bass Sunset Sunburst</t>
+          <t>VINTAGE VJ74 Reiussed Bass Gloss Black</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74M Reiussed Bass Sunset Sunburst</t>
+          <t>VINTAGE VJ74 Reiussed Bass Sunset Sunburst</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74M Reiussed Bass Vintage White</t>
+          <t>VINTAGE VJ74M Reiussed Bass Sunset Sunburst</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Black Satin (2nd Gen)</t>
+          <t>VINTAGE VJ74M Reiussed Bass Vintage White</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>€459.00</t>
+          <t>€445.00</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V3 4 Red Satin (2nd Gen)</t>
+          <t>MARCUS MILLER V3 4 Black Satin (2nd Gen)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1122,16 +1122,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 Alder 4 Tobacco Sunburst (2nd Gen)</t>
+          <t>MARCUS MILLER V3 4 Red Satin (2nd Gen)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>€495.00</t>
+          <t>€459.00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 Alder 4 VWH Vintage White</t>
+          <t>MARCUS MILLER V5 Alder 4 Tobacco Sunburst (2nd Gen)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FENDER Squier Contemporary Active Jazz Bass HH Shoreline Gold</t>
+          <t>MARCUS MILLER V5 Alder 4 VWH Vintage White</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>€469.00</t>
+          <t>€495.00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FENDER Squier Contemporary Active Jazz Bass HH Sky Burst Metallic</t>
+          <t>FENDER Squier Contemporary Active Jazz Bass HH Shoreline Gold</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5R Alder 4 Natural</t>
+          <t>FENDER Squier Contemporary Active Jazz Bass HH Sky Burst Metallic</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>€499.00</t>
+          <t>€469.00</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1212,16 +1212,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Alder 4 Antique White (2nd Gen)</t>
+          <t>MARCUS MILLER V5R Alder 4 Natural</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>€549.00</t>
+          <t>€499.00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1230,16 +1230,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5R Alder 4 Mild Green</t>
+          <t>MARCUS MILLER V7 Alder 4 Antique White (2nd Gen)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>€499.00</t>
+          <t>€549.00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="46">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5R Alder 4 Tobacco Sunburst</t>
+          <t>MARCUS MILLER V5R Alder 4 Mild Green</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 Alder 4 Champagne Gold Metallic</t>
+          <t>MARCUS MILLER V5R Alder 4 Tobacco Sunburst</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>€495.00</t>
+          <t>€499.00</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 Alder 4 Natural (2nd Gen)</t>
+          <t>MARCUS MILLER V5 Alder 4 Champagne Gold Metallic</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1302,16 +1302,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 24-4 Mild Green</t>
+          <t>MARCUS MILLER V5 Alder 4 Natural (2nd Gen)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>€549.00</t>
+          <t>€495.00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Alder 4 Black (2nd Gen)</t>
+          <t>MARCUS MILLER V5 24-4 Mild Green</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Alder 4 Lake Placid Blue (2nd Gen)</t>
+          <t>MARCUS MILLER V7 Alder 4 Black (2nd Gen)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Vintage Alder 4 Black (2nd Gen)</t>
+          <t>MARCUS MILLER V7 Alder 4 Lake Placid Blue (2nd Gen)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>€599.00</t>
+          <t>€549.00</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1374,16 +1374,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74 Icon Bass Distressed Sunburst</t>
+          <t>MARCUS MILLER V7 Vintage Alder 4 Black (2nd Gen)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>€499.00</t>
+          <t>€599.00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74M Icon Bass Distressed Black</t>
+          <t>VINTAGE VJ74 Icon Bass Distressed Sunburst</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Alder 4 Burgundy (2nd Gen)</t>
+          <t>VINTAGE VJ74M Icon Bass Distressed Black</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>€549.00</t>
+          <t>€499.00</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1428,16 +1428,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VINTAGE VJ74M Reiussed Bass Natural Ash</t>
+          <t>MARCUS MILLER V7 Alder 4 Burgundy (2nd Gen)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>€539.00</t>
+          <t>€549.00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1446,16 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 24-4 Natural</t>
+          <t>VINTAGE VJ74M Reiussed Bass Natural Ash</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>€549.00</t>
+          <t>€539.00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V5 24-4 Vintage White</t>
+          <t>MARCUS MILLER V5 24-4 Natural</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Alder 4 Bright Metallic Red (2nd Gen)</t>
+          <t>MARCUS MILLER V5 24-4 Vintage White</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Alder 4 Tobacco Sunburst (2nd Gen)</t>
+          <t>MARCUS MILLER V7 Alder 4 Bright Metallic Red (2nd Gen)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1518,16 +1518,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Vintage Alder 4 Antique White (2nd Gen)</t>
+          <t>MARCUS MILLER V7 Alder 4 Tobacco Sunburst (2nd Gen)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>€599.00</t>
+          <t>€549.00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Vintage Alder 4 Tobacco Sunburst (2nd Gen)</t>
+          <t>MARCUS MILLER V7 Vintage Alder 4 Antique White (2nd Gen)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TOKAI AJB58 Metallic Red</t>
+          <t>MARCUS MILLER V7 Vintage Alder 4 Tobacco Sunburst (2nd Gen)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MARKBASS MB GV 4 Gloxy 3 Tone Sunburst (Passive)</t>
+          <t>TOKAI AJB58 Metallic Red</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>€649.00</t>
+          <t>€599.00</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SADOWSKY MetroExpress Hybrid PJ Bass 4 21 Candy Apple Red</t>
+          <t>MARKBASS MB GV 4 Gloxy 3 Tone Sunburst (Passive)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>€799.00</t>
+          <t>€649.00</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SADOWSKY MetroExpress Hybrid PJ Bass 4 21 Tobacco Burst</t>
+          <t>SADOWSKY MetroExpress Hybrid PJ Bass 4 21 Candy Apple Red</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SADOWSKY MetroExpress Vintage JJ Bass 4 21 Candy Apple Red</t>
+          <t>SADOWSKY MetroExpress Hybrid PJ Bass 4 21 Tobacco Burst</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Vintage Swamp Ash 4 Bright Metallic Red (2nd Gen)</t>
+          <t>SADOWSKY MetroExpress Vintage JJ Bass 4 21 Candy Apple Red</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>€755.00</t>
+          <t>€799.00</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Vintage Swamp Ash 4 Tobacco Sunburst (2nd Gen)</t>
+          <t>MARCUS MILLER V7 Vintage Swamp Ash 4 Bright Metallic Red (2nd Gen)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1680,16 +1680,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JACKSON X Series Concert Bass CBXDX IV LRL Matte Army Drab</t>
+          <t>MARCUS MILLER V7 Vintage Swamp Ash 4 Tobacco Sunburst (2nd Gen)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>€709.00</t>
+          <t>€755.00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JACKSON X Series Concert Bass CBXDX IV MN Ice Blue Metallic</t>
+          <t>JACKSON X Series Concert Bass CBXDX IV LRL Matte Army Drab</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1716,16 +1716,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V7 Vintage Swamp Ash 4 Natural (2nd Gen)</t>
+          <t>JACKSON X Series Concert Bass CBXDX IV MN Ice Blue Metallic</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>€755.00</t>
+          <t>€709.00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1734,16 +1734,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CHARVEL Pro-Mod San Dimas Bass PJ IV Metallic Black</t>
+          <t>MARCUS MILLER V7 Vintage Swamp Ash 4 Natural (2nd Gen)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>€1009.00</t>
+          <t>€755.00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="74">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CHARVEL Pro-Mod San Dimas Bass PJ IV Mystic Blue</t>
+          <t>CHARVEL Pro-Mod San Dimas Bass PJ IV Metallic Black</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CHARVEL Pro-Mod San Dimas Bass PJ IV Platinum Pearl</t>
+          <t>CHARVEL Pro-Mod San Dimas Bass PJ IV Mystic Blue</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V8 4 Tobacco Sunburst</t>
+          <t>CHARVEL Pro-Mod San Dimas Bass PJ IV Platinum Pearl</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>€849.00</t>
+          <t>€1009.00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V8 4 White Blonde</t>
+          <t>MARCUS MILLER V8 4 Tobacco Sunburst</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1824,16 +1824,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CHARVEL Frank Bello Signature Pro-Mod So-Cal Bass PJ IV Gloss Black</t>
+          <t>MARCUS MILLER V8 4 White Blonde</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>€1089.00</t>
+          <t>€849.00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1842,16 +1842,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass MN 3-Color Sunburst</t>
+          <t>CHARVEL Frank Bello Signature Pro-Mod So-Cal Bass PJ IV Gloss Black</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>€879.00</t>
+          <t>€1089.00</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V8 4 Natural</t>
+          <t>FENDER Player Jazz Bass MN 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>€849.00</t>
+          <t>€879.00</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass MN Buttercream</t>
+          <t>MARCUS MILLER V8 4 Natural</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>€879.00</t>
+          <t>€849.00</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass PF 3-Color Sunburst</t>
+          <t>FENDER Player Jazz Bass MN Buttercream</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass MN Black</t>
+          <t>FENDER Player Jazz Bass PF 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass MN Polar White</t>
+          <t>FENDER Player Jazz Bass MN Black</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass MN Tidepool</t>
+          <t>FENDER Player Jazz Bass MN Polar White</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass PF Black</t>
+          <t>FENDER Player Jazz Bass MN Tidepool</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass PF Candy Apple Red</t>
+          <t>FENDER Player Jazz Bass PF Black</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass PF Sea Foam Green</t>
+          <t>FENDER Player Jazz Bass PF Candy Apple Red</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FENDER Player Jazz Bass PF Silver</t>
+          <t>FENDER Player Jazz Bass PF Sea Foam Green</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PRS SE Kestrel Tri-Color Sunburst</t>
+          <t>FENDER Player Jazz Bass PF Silver</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>€968.00</t>
+          <t>€879.00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2058,16 +2058,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FENDER Vintera 60s Jazz Bass PF Daphne Blue</t>
+          <t>PRS SE Kestrel Tri-Color Sunburst</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>€1149.00</t>
+          <t>€968.00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2076,16 +2076,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FENDER Player Plus Jazz Bass PF Belair Blue</t>
+          <t>FENDER Vintera 60s Jazz Bass PF Daphne Blue</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>€1209.00</t>
+          <t>€1149.00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FENDER Player Plus Jazz Bass MN Olympic Pearl</t>
+          <t>FENDER Vintera 60s Jazz Bass PF Firemist Gold</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>€1209.00</t>
+          <t>€1179.00</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2112,16 +2112,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FENDER Player Plus Jazz Bass PF 3-Color Sunburst</t>
+          <t>FENDER Vintera 70s Jazz PF 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>€1209.00</t>
+          <t>€1219.00</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="95">
@@ -2130,16 +2130,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FENDER Vintera 70s Jazz PF 3-Color Sunburst</t>
+          <t>FENDER Player Plus Jazz Bass PF 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>€1219.00</t>
+          <t>€1209.00</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FENDER Vintera 60s Jazz Bass PF Firemist Gold</t>
+          <t>FENDER Player Plus Jazz Bass MN Sienna Sunburst</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>€1179.00</t>
+          <t>€1209.00</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FENDER Player Plus Jazz Bass MN Sienna Sunburst</t>
+          <t>FENDER Player Plus Jazz Bass PF Belair Blue</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -2256,16 +2256,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FENDER Geddy Lee Jazz Bass MN 3-Color Sunburst</t>
+          <t>FENDER Aerodyne Special Jazz Bass RW Chocolate Burst</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>€1289.00</t>
+          <t>€1419.00</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2274,16 +2274,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FENDER Gold Foil Jazz Bass EB Sonic Blue</t>
+          <t>FENDER Geddy Lee Jazz Bass MN 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>€1369.00</t>
+          <t>€1289.00</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V10DX 4 Natural</t>
+          <t>FENDER Gold Foil Jazz Bass EB Sonic Blue</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>€1599.00</t>
+          <t>€1369.00</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MARCUS MILLER V10DX 4 Tobacco Sunburst</t>
+          <t>MARCUS MILLER V10DX 4 Natural</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FENDER Made In Japan Limited Hybrid II Jazz Bass Noir RW Black</t>
+          <t>MARCUS MILLER V10DX 4 Tobacco Sunburst</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>€1369.00</t>
+          <t>€1599.00</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FENDER Aerodyne Special Jazz Bass RW Chocolate Burst</t>
+          <t>FENDER Made In Japan Limited Hybrid II Jazz Bass Noir RW Black</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>€1419.00</t>
+          <t>€1369.00</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FENDER American Performer Jazz Bass MN Satin Surf Green</t>
+          <t>FENDER Flea Jazz Bass RW Roadworn Shell Pink</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>€1659.00</t>
+          <t>€1669.00</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FENDER Flea Jazz Bass RW Roadworn Shell Pink</t>
+          <t>FENDER American Performer Jazz Bass RW 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>€1669.00</t>
+          <t>€1659.00</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FENDER American Performer Jazz Bass RW 3-Color Sunburst</t>
+          <t>FENDER American Performer Jazz Bass RW Arctic White</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2454,12 +2454,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FENDER American Performer Jazz Bass RW Arctic White</t>
+          <t>FENDER American Professional II Jazz Bass RW Miami Blue</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>€1659.00</t>
+          <t>€2159.00</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FENDER American Professional II Jazz Bass RW Miami Blue</t>
+          <t>FENDER American Professional II Jazz Bass RW Olympic White</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2562,16 +2562,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FENDER American Professional II Jazz Bass RW Olympic White</t>
+          <t>FENDER AM Ultra Jazz Bass MN Cobra Blue B-Stock</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>€2159.00</t>
+          <t>€2569.00</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -2670,16 +2670,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FENDER AM Ultra Jazz Bass MN Cobra Blue B-Stock</t>
+          <t>FENDER American Vintage II 1966 Jazz Bass SS RW 3-Color Sunburst B-Stock</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>€2569.00</t>
+          <t>€2479.00</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FENDER AM Ultra Jazz Bass RW Ultraburst</t>
+          <t>FENDER AM Ultra Jazz Bass MN Cobra Blue</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FENDER American Vintage II 1966 Jazz Bass SS RW 3-Color Sunburst</t>
+          <t>FENDER AM Ultra Jazz Bass RW Ultraburst</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>€2479.00</t>
+          <t>€2569.00</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FENDER AM Ultra Jazz Bass MN Cobra Blue</t>
+          <t>FENDER AM Ultra Jazz Bass MN Texas Tea</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2796,16 +2796,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FENDER AM Ultra Jazz Bass MN Texas Tea</t>
+          <t>FENDER American Vintage II 1966 Jazz Bass SS RW 3-Color Sunburst</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>€2569.00</t>
+          <t>€2479.00</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
